--- a/cms/doc/CMS_document_V1.xlsx
+++ b/cms/doc/CMS_document_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>log4j</t>
   </si>
@@ -246,6 +246,45 @@
   </si>
   <si>
     <t>file change</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>EncodeFilter</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>mysql:</t>
+  </si>
+  <si>
+    <t>login:</t>
+  </si>
+  <si>
+    <t>mysqld --default-character-set=utf8</t>
+  </si>
+  <si>
+    <t>create table:</t>
+  </si>
+  <si>
+    <t>utf-8</t>
+  </si>
+  <si>
+    <t>mysql.ini</t>
+  </si>
+  <si>
+    <t>[mysql]</t>
+  </si>
+  <si>
+    <t>default-character-set=utf8</t>
+  </si>
+  <si>
+    <t>request.setCharacterEncoding("utf-8");</t>
   </si>
 </sst>
 </file>
@@ -684,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -713,11 +752,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -727,6 +764,14 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -739,11 +784,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -1168,9 +1219,61 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:6">
       <c r="B97" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="D102" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="D103" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" t="s">
+        <v>86</v>
+      </c>
+      <c r="F103" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
